--- a/processed data.xlsx
+++ b/processed data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mylene/EDML/Cassowary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{149A7B2C-ADEE-054C-9A82-1626EB0C8627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E9F746-CD4A-6F4D-87EE-8097A19C049F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16080"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="processed data" sheetId="1" r:id="rId1"/>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1057,16 +1057,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AT1" sqref="AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="40.83203125" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" customWidth="1"/>
+    <col min="28" max="28" width="29" customWidth="1"/>
+    <col min="41" max="41" width="24" customWidth="1"/>
+    <col min="42" max="42" width="26.1640625" customWidth="1"/>
+    <col min="43" max="43" width="25.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.2">
@@ -15657,7 +15664,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR1"/>
+  <autoFilter ref="A1:AR1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>